--- a/Lab2/Политический спектр.xlsx
+++ b/Lab2/Политический спектр.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Люди</t>
   </si>
@@ -172,6 +173,18 @@
   </si>
   <si>
     <t>Пелли</t>
+  </si>
+  <si>
+    <t>Тито</t>
+  </si>
+  <si>
+    <t>Гайдай</t>
+  </si>
+  <si>
+    <t>Витте</t>
+  </si>
+  <si>
+    <t>Джонсон</t>
   </si>
 </sst>
 </file>
@@ -187,12 +200,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,82 +226,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -295,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F35" totalsRowShown="0">
-  <autoFilter ref="A1:F35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F39" totalsRowShown="0">
+  <autoFilter ref="A1:F39"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Люди"/>
     <tableColumn id="2" name="Он правит/правил страной?"/>
@@ -572,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,40 +801,40 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -890,7 +842,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -899,18 +851,18 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -919,41 +871,41 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -965,61 +917,61 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1030,10 +982,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1042,47 +994,47 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1090,7 +1042,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1099,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1110,7 +1062,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1125,12 +1077,12 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1139,18 +1091,18 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1162,15 +1114,15 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
+      <c r="A30" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1179,18 +1131,18 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1199,18 +1151,18 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1219,18 +1171,18 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1250,86 +1202,166 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
         <v>29</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D41" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E41" t="s">
         <v>47</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C42" t="s">
         <v>30</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D42" t="s">
         <v>32</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E42" t="s">
         <v>48</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>31</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D43" t="s">
         <v>33</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F43" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Lab2/Политический спектр.xlsx
+++ b/Lab2/Политический спектр.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8367A-0469-42A7-8FE2-E6D2641295DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Люди</t>
   </si>
@@ -185,12 +185,18 @@
   </si>
   <si>
     <t>Джонсон</t>
+  </si>
+  <si>
+    <t>Есть в системе</t>
+  </si>
+  <si>
+    <t>Нет в системе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,6 +241,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -247,15 +321,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F39" totalsRowShown="0">
-  <autoFilter ref="A1:F39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:F39" totalsRowShown="0">
+  <autoFilter ref="A1:F39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Люди"/>
-    <tableColumn id="2" name="Он правит/правил страной?"/>
-    <tableColumn id="3" name="Откуда?"/>
-    <tableColumn id="4" name="Что по идеологии?"/>
-    <tableColumn id="5" name="Он жив?"/>
-    <tableColumn id="6" name="Как к нему относятся?"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Люди"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Он правит/правил страной?"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Откуда?"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Что по идеологии?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Он жив?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Как к нему относятся?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -266,10 +340,10 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="2D2D2D"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F5F5F5"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -523,11 +597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,6 +1395,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
@@ -1338,6 +1415,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B42" t="s">
         <v>48</v>
       </c>
